--- a/data/silver-clothes.xlsx
+++ b/data/silver-clothes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Desktop\shit\bdo\Crone-o-meter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\john\Desktop\shit\bdo\Crone-o-meter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6ABF87-C06E-4E5B-8364-8A2FFC3102A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD4B941-ABE5-4A56-94EA-5E300FCAE4DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34890" yWindow="3525" windowWidth="15735" windowHeight="6735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FS</t>
+  </si>
+  <si>
+    <t>PRI</t>
+  </si>
+  <si>
+    <t>DUO</t>
+  </si>
+  <si>
+    <t>TRI</t>
+  </si>
+  <si>
+    <t>TET</t>
+  </si>
+  <si>
+    <t>PEN</t>
   </si>
 </sst>
 </file>
@@ -372,7 +387,7 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,19 +396,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
